--- a/medicine/Soins infirmiers et profession infirmière/1899_en_santé_et_médecine/1899_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1899_en_santé_et_médecine/1899_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1899_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1899_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1899 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1899_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1899_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 mars : dépôt du brevet de l'aspirine par le laboratoire allemand Bayer[1].
-20 avril : création du premier système d’Assistance médicale indigène, à Madagascar, par Joseph Gallieni, gouverneur général de la colonie[2]. L'initiative sera reprise dans toutes les colonies françaises d’Afrique et d'Indochine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 mars : dépôt du brevet de l'aspirine par le laboratoire allemand Bayer.
+20 avril : création du premier système d’Assistance médicale indigène, à Madagascar, par Joseph Gallieni, gouverneur général de la colonie. L'initiative sera reprise dans toutes les colonies françaises d’Afrique et d'Indochine.
 Sans date précise :
-Dorothée Chellier quitte l'Algérie française, où elle avait été la première femme médecin[3].
-Frederick Montizambert quitte la Grosse Île du fleuve Saint-Laurent. Il avait dirigé, durant trente ans, la modernisation de cette île de quarantaine[4]. Il continuera dans le ministère canadien de l'agriculture son travail pour la santé publique[5].
-Madeleine Pelletier se voit décerner par la ville de Paris une bourse pour étudier la médecine[6].
-Louis-Joseph-Alfred Simard devient doyen de la faculté de médecine de l'université Laval[7].
+Dorothée Chellier quitte l'Algérie française, où elle avait été la première femme médecin.
+Frederick Montizambert quitte la Grosse Île du fleuve Saint-Laurent. Il avait dirigé, durant trente ans, la modernisation de cette île de quarantaine. Il continuera dans le ministère canadien de l'agriculture son travail pour la santé publique.
+Madeleine Pelletier se voit décerner par la ville de Paris une bourse pour étudier la médecine.
+Louis-Joseph-Alfred Simard devient doyen de la faculté de médecine de l'université Laval.
 On compte en Allemagne 400 étudiantes en médecine.
-« À Montréal, en 1899, on compte 2 071 morts pour 7 715 naissances, soit un taux de 26,8 %. Les statistiques de la ville de Québec pour la même année sont encore plus significatives : sur 1 332 naissances, on compte 665 morts, soit un taux de 49,9 %[8] ».</t>
+« À Montréal, en 1899, on compte 2 071 morts pour 7 715 naissances, soit un taux de 26,8 %. Les statistiques de la ville de Québec pour la même année sont encore plus significatives : sur 1 332 naissances, on compte 665 morts, soit un taux de 49,9 % ».</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1899_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1899_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>8 juin : Ernst-Robert Grawitz, médecin nazi, responsable avec d'autres de l'assassinat d'un grand nombre de handicapés et de juifs ainsi que d'expériences pseudo-médicales.
 31 octobre : André Lichtwitz, combattant de la Grande Guerre, résistant, médecin de de Gaulle.</t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1899_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1899_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +596,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7 juillet : James Elliot Graham, médecin et professeur canadien[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 juillet : James Elliot Graham, médecin et professeur canadien
 25 août : Lucien Quélet, médecin, naturaliste et mycologue.
 Sans date précise :
-August Wicke (de) médecin du Togoland[10].</t>
+August Wicke (de) médecin du Togoland.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1899_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1899_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,12 +631,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Manuel MSD (appelé Manuel Merck aux États-Unis et au Canada)[11].
-Thomas Clifford Allbutt, A system of medicine, vol. VIII et dernier de la première édition[12].
-John Mitchell Bruce (en), The principles of treatment and their applications in practical medicine[13].
-Louis-Édouard Fortier, L'École de médecine[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Manuel MSD (appelé Manuel Merck aux États-Unis et au Canada).
+Thomas Clifford Allbutt, A system of medicine, vol. VIII et dernier de la première édition.
+John Mitchell Bruce (en), The principles of treatment and their applications in practical medicine.
+Louis-Édouard Fortier, L'École de médecine.
 William Osler, The principles and practice of medicine, New York, D. Appelton and Co.
 Roswell Park (en), An epitome of the history of medicine
 Édouard Toulouse, « Les médecins des asiles », dans Revue de psychiatrie.
